--- a/biology/Botanique/Metrosideros/Metrosideros.xlsx
+++ b/biology/Botanique/Metrosideros/Metrosideros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Metrosideros est un genre de plantes à fleurs de la famille des Myrtacées incluant une cinquantaine d'espèces d'arbres, arbustes et lianes originaires des îles du Pacifique, des Philippines à la Nouvelle-Zélande en passant par les Îles Bonin, la Polynésie et la Mélanésie. On en trouve également en Afrique du Sud.
 La plupart des arbres du genre sont de petite taille mais certains sont exceptionnellement grands, notamment les espèces originaires de Nouvelle-Zélande.
@@ -512,9 +524,11 @@
           <t>Espèces du genre Metrosideros</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 févr. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 févr. 2012) :
 Metrosideros albiflora Sol. ex Gaertn. (1788)
 Metrosideros angustifolia (L.) Sm. (1797)
 Metrosideros arfakensis Gibbs (1917)
